--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC4361-EE9F-46BC-897B-AAAC3AE4BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9A677-8806-4E64-89D6-FDE6E9371CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -441,10 +447,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,63 +533,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,7 +863,7 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,150 +873,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="20"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9">
+      <c r="A5" s="40"/>
+      <c r="B5" s="45">
         <v>3</v>
       </c>
       <c r="C5" s="9">
@@ -1100,43 +1108,43 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1172,7 +1180,7 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1208,37 +1216,37 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1321,7 +1329,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1388,37 +1396,37 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="22"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1432,9 +1440,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1640,37 +1648,37 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="22"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1798,7 +1806,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -1820,40 +1828,40 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="25"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -1889,7 +1897,7 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="4"/>
@@ -1960,81 +1968,26 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-    </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
+      <c r="J31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -2047,23 +2000,28 @@
       <c r="A35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:AF4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B9:AF9"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B21:AF21"/>
@@ -2072,11 +2030,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B3:AF4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B6:AF6"/>
-    <mergeCell ref="B9:AF9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9A677-8806-4E64-89D6-FDE6E9371CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED4B826-2D0D-4623-BC32-42F0406A6B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Site Mobile</t>
   </si>
   <si>
-    <t>Interface de login para motoristas</t>
-  </si>
-  <si>
     <t>Página de informações</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Biografia</t>
+  </si>
+  <si>
+    <t>Interface de login</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,18 +269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -421,19 +409,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,12 +452,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,48 +465,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,14 +525,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,438 +870,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFD68E1-9361-4BBE-9C59-B1E2714AB6B0}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" customWidth="1"/>
+    <col min="2" max="53" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+    </row>
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+    </row>
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="31"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="34"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6</v>
+      </c>
+      <c r="F5" s="17">
+        <v>7</v>
+      </c>
+      <c r="G5" s="17">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>9</v>
+      </c>
+      <c r="I5" s="17">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8">
         <v>12</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-    </row>
-    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="39"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="45">
+      <c r="L5" s="8">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+      <c r="O5" s="8">
+        <v>16</v>
+      </c>
+      <c r="P5" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>18</v>
+      </c>
+      <c r="R5" s="8">
+        <v>19</v>
+      </c>
+      <c r="S5" s="8">
+        <v>20</v>
+      </c>
+      <c r="T5" s="8">
+        <v>21</v>
+      </c>
+      <c r="U5" s="8">
+        <v>22</v>
+      </c>
+      <c r="V5" s="8">
+        <v>23</v>
+      </c>
+      <c r="W5" s="8">
+        <v>24</v>
+      </c>
+      <c r="X5" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="AG5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="AH5" s="8">
         <v>5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="AI5" s="8">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="AJ5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="9">
+      <c r="AK5" s="8">
         <v>8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="AL5" s="8">
         <v>9</v>
       </c>
-      <c r="I5" s="9">
+      <c r="AM5" s="8">
         <v>10</v>
       </c>
-      <c r="J5" s="9">
+      <c r="AN5" s="8">
         <v>11</v>
       </c>
-      <c r="K5" s="9">
+      <c r="AO5" s="8">
         <v>12</v>
       </c>
-      <c r="L5" s="9">
-        <v>13</v>
-      </c>
-      <c r="M5" s="9">
-        <v>14</v>
-      </c>
-      <c r="N5" s="9">
-        <v>15</v>
-      </c>
-      <c r="O5" s="9">
-        <v>16</v>
-      </c>
-      <c r="P5" s="9">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>18</v>
-      </c>
-      <c r="R5" s="9">
-        <v>19</v>
-      </c>
-      <c r="S5" s="9">
-        <v>20</v>
-      </c>
-      <c r="T5" s="9">
-        <v>21</v>
-      </c>
-      <c r="U5" s="9">
-        <v>22</v>
-      </c>
-      <c r="V5" s="9">
-        <v>23</v>
-      </c>
-      <c r="W5" s="9">
-        <v>24</v>
-      </c>
-      <c r="X5" s="9">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>27</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>30</v>
-      </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="47"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+    </row>
+    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1319,17 +1443,26 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1355,116 +1488,152 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="22"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1478,8 +1647,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1499,10 +1668,19 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1516,11 +1694,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1535,10 +1713,19 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -1557,8 +1744,8 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -1571,10 +1758,19 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1595,10 +1791,10 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -1607,124 +1803,160 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="22"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="47"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1749,23 +1981,32 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1787,118 +2028,154 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+    </row>
+    <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="25"/>
-    </row>
-    <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+    </row>
+    <row r="27" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+    </row>
+    <row r="28" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1931,10 +2208,19 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1967,69 +2253,79 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="J31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:AF4"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B6:AF6"/>
-    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B1:AO2"/>
+    <mergeCell ref="B9:AO9"/>
+    <mergeCell ref="B6:AO6"/>
+    <mergeCell ref="B3:AC4"/>
+    <mergeCell ref="AD3:AO4"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B14:AF14"/>
-    <mergeCell ref="B21:AF21"/>
-    <mergeCell ref="B26:AF26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:AO21"/>
+    <mergeCell ref="B26:AO26"/>
+    <mergeCell ref="B14:AO14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED4B826-2D0D-4623-BC32-42F0406A6B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C269EBB-52AB-4713-9C85-C9102024E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Trabalhos</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Interface de login</t>
+  </si>
+  <si>
+    <t>Maio</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -368,17 +371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -392,17 +384,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -433,11 +414,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,83 +461,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +550,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCD8D8"/>
       <color rgb="FFFF5D5D"/>
-      <color rgb="FFFCD8D8"/>
       <color rgb="FFFBCDCD"/>
       <color rgb="FFFAB8B8"/>
     </mruColors>
@@ -870,198 +864,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFD68E1-9361-4BBE-9C59-B1E2714AB6B0}">
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="53" width="3.7109375" customWidth="1"/>
+    <col min="2" max="57" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="29" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+    </row>
+    <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+    </row>
+    <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="31"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="34"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+    </row>
+    <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -1146,123 +1206,187 @@
       <c r="AC5" s="8">
         <v>30</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="50">
         <v>1</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="50">
         <v>2</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="50">
         <v>3</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="50">
         <v>4</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="50">
         <v>5</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="50">
         <v>6</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="50">
         <v>7</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="50">
         <v>8</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="50">
         <v>9</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="50">
         <v>10</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="50">
         <v>11</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AO5" s="50">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP5" s="53">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="53">
+        <v>14</v>
+      </c>
+      <c r="AR5" s="53">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="53">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="53">
+        <v>17</v>
+      </c>
+      <c r="AU5" s="53">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="53">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="53">
+        <v>20</v>
+      </c>
+      <c r="AX5" s="53">
+        <v>21</v>
+      </c>
+      <c r="AY5" s="53">
+        <v>22</v>
+      </c>
+      <c r="AZ5" s="53">
+        <v>23</v>
+      </c>
+      <c r="BA5" s="53">
+        <v>24</v>
+      </c>
+      <c r="BB5" s="53">
+        <v>25</v>
+      </c>
+      <c r="BC5" s="53">
+        <v>26</v>
+      </c>
+      <c r="BD5" s="53">
+        <v>27</v>
+      </c>
+      <c r="BE5" s="53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="47"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="33"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -1272,42 +1396,58 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -1317,87 +1457,119 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+    </row>
+    <row r="9" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="33"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1407,8 +1579,24 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1452,8 +1640,24 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1497,42 +1701,58 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1542,87 +1762,119 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+    </row>
+    <row r="14" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="33"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -1632,8 +1884,24 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,8 +1945,24 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1722,8 +2006,24 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1767,8 +2067,24 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1812,42 +2128,58 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
@@ -1857,87 +2189,119 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
-    </row>
-    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+    </row>
+    <row r="21" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="47"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
@@ -1947,8 +2311,24 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1992,8 +2372,24 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2037,42 +2433,58 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
@@ -2082,87 +2494,119 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-    </row>
-    <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+    </row>
+    <row r="26" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-    </row>
-    <row r="27" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+      <c r="BA26" s="32"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="33"/>
+    </row>
+    <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -2172,8 +2616,24 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
-    </row>
-    <row r="28" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+    </row>
+    <row r="28" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
@@ -2217,8 +2677,24 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2262,48 +2738,64 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="J31" s="11"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -2312,20 +2804,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:AO2"/>
-    <mergeCell ref="B9:AO9"/>
-    <mergeCell ref="B6:AO6"/>
-    <mergeCell ref="B3:AC4"/>
-    <mergeCell ref="AD3:AO4"/>
+    <mergeCell ref="B1:BE2"/>
+    <mergeCell ref="AD3:BE4"/>
+    <mergeCell ref="B9:BE9"/>
+    <mergeCell ref="B6:BE6"/>
+    <mergeCell ref="B14:BE14"/>
+    <mergeCell ref="B21:BE21"/>
+    <mergeCell ref="B26:BE26"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:AO21"/>
-    <mergeCell ref="B26:AO26"/>
-    <mergeCell ref="B14:AO14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:AC4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9A677-8806-4E64-89D6-FDE6E9371CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A99BBB-E6D6-4CFC-8864-88C6375617D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Site Mobile</t>
   </si>
   <si>
-    <t>Interface de login para motoristas</t>
-  </si>
-  <si>
     <t>Página de informações</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Biografia</t>
+  </si>
+  <si>
+    <t>Interface de login para os usuários</t>
   </si>
 </sst>
 </file>
@@ -458,85 +458,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,7 +863,7 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,150 +873,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="23"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="39"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="26"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="20">
         <v>3</v>
       </c>
       <c r="C5" s="9">
@@ -1108,43 +1108,43 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1180,8 +1180,8 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1216,41 +1216,41 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="10"/>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1394,43 +1394,43 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1646,39 +1646,39 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="34"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1828,41 +1828,41 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="25"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="37"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="28" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1977,38 +1977,38 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
@@ -2017,11 +2017,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:AF4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B6:AF6"/>
-    <mergeCell ref="B9:AF9"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B21:AF21"/>
@@ -2030,6 +2025,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B3:AF4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B9:AF9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C269EBB-52AB-4713-9C85-C9102024E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50824AD-9916-4830-A64F-BE1A1561A5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,78 +475,85 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +880,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,251 +890,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="51" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33"/>
     </row>
     <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -1146,16 +1159,16 @@
       <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="55">
         <v>11</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="55">
         <v>12</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="55">
         <v>13</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="55">
         <v>14</v>
       </c>
       <c r="N5" s="8">
@@ -1203,91 +1216,91 @@
       <c r="AB5" s="8">
         <v>29</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="55">
         <v>30</v>
       </c>
-      <c r="AD5" s="50">
+      <c r="AD5" s="56">
         <v>1</v>
       </c>
-      <c r="AE5" s="50">
+      <c r="AE5" s="56">
         <v>2</v>
       </c>
-      <c r="AF5" s="50">
+      <c r="AF5" s="56">
         <v>3</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="56">
         <v>4</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AH5" s="28">
         <v>5</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="28">
         <v>6</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="28">
         <v>7</v>
       </c>
-      <c r="AK5" s="50">
+      <c r="AK5" s="28">
         <v>8</v>
       </c>
-      <c r="AL5" s="50">
+      <c r="AL5" s="28">
         <v>9</v>
       </c>
-      <c r="AM5" s="50">
+      <c r="AM5" s="28">
         <v>10</v>
       </c>
-      <c r="AN5" s="50">
+      <c r="AN5" s="28">
         <v>11</v>
       </c>
-      <c r="AO5" s="50">
+      <c r="AO5" s="28">
         <v>12</v>
       </c>
-      <c r="AP5" s="53">
+      <c r="AP5" s="30">
         <v>13</v>
       </c>
-      <c r="AQ5" s="53">
+      <c r="AQ5" s="30">
         <v>14</v>
       </c>
-      <c r="AR5" s="53">
+      <c r="AR5" s="30">
         <v>15</v>
       </c>
-      <c r="AS5" s="53">
+      <c r="AS5" s="30">
         <v>16</v>
       </c>
-      <c r="AT5" s="53">
+      <c r="AT5" s="30">
         <v>17</v>
       </c>
-      <c r="AU5" s="53">
+      <c r="AU5" s="30">
         <v>18</v>
       </c>
-      <c r="AV5" s="53">
+      <c r="AV5" s="30">
         <v>19</v>
       </c>
-      <c r="AW5" s="53">
+      <c r="AW5" s="30">
         <v>20</v>
       </c>
-      <c r="AX5" s="53">
+      <c r="AX5" s="30">
         <v>21</v>
       </c>
-      <c r="AY5" s="53">
+      <c r="AY5" s="30">
         <v>22</v>
       </c>
-      <c r="AZ5" s="53">
+      <c r="AZ5" s="30">
         <v>23</v>
       </c>
-      <c r="BA5" s="53">
+      <c r="BA5" s="30">
         <v>24</v>
       </c>
-      <c r="BB5" s="53">
+      <c r="BB5" s="30">
         <v>25</v>
       </c>
-      <c r="BC5" s="53">
+      <c r="BC5" s="30">
         <v>26</v>
       </c>
-      <c r="BD5" s="53">
+      <c r="BD5" s="30">
         <v>27</v>
       </c>
-      <c r="BE5" s="53">
+      <c r="BE5" s="30">
         <v>28</v>
       </c>
     </row>
@@ -1295,62 +1308,62 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="36"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1478,62 +1491,62 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="36"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1783,62 +1796,62 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="32"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="32"/>
-      <c r="BA14" s="32"/>
-      <c r="BB14" s="32"/>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="36"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1852,9 +1865,9 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1915,8 +1928,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2210,62 +2223,62 @@
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="35"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="36"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2298,8 +2311,8 @@
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
       <c r="AE22" s="22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="4"/>
@@ -2361,9 +2374,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -2515,62 +2528,62 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="35"/>
+      <c r="BB26" s="35"/>
+      <c r="BC26" s="35"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="36"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -2616,10 +2629,10 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
@@ -2766,36 +2779,36 @@
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -2804,11 +2817,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:BE2"/>
-    <mergeCell ref="AD3:BE4"/>
-    <mergeCell ref="B9:BE9"/>
-    <mergeCell ref="B6:BE6"/>
-    <mergeCell ref="B14:BE14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:AC4"/>
     <mergeCell ref="B21:BE21"/>
     <mergeCell ref="B26:BE26"/>
     <mergeCell ref="B36:C36"/>
@@ -2816,8 +2826,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:AC4"/>
+    <mergeCell ref="B1:BE2"/>
+    <mergeCell ref="AD3:BE4"/>
+    <mergeCell ref="B9:BE9"/>
+    <mergeCell ref="B6:BE6"/>
+    <mergeCell ref="B14:BE14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50824AD-9916-4830-A64F-BE1A1561A5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAADE92A-64FA-41FF-9C27-01E86C67042C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>CRUD Contratação de Profissionais</t>
   </si>
   <si>
-    <t>Trabalhos Realizadas</t>
-  </si>
-  <si>
     <t>Trabalhos em Andamento</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Maio</t>
+  </si>
+  <si>
+    <t>Trabalhos Realizados</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -483,6 +477,60 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,67 +540,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +869,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="BE29" sqref="BE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,251 +879,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
     </row>
     <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -1159,16 +1148,16 @@
       <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="17">
         <v>11</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="17">
         <v>12</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="17">
         <v>13</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="17">
         <v>14</v>
       </c>
       <c r="N5" s="8">
@@ -1216,19 +1205,19 @@
       <c r="AB5" s="8">
         <v>29</v>
       </c>
-      <c r="AC5" s="55">
+      <c r="AC5" s="17">
         <v>30</v>
       </c>
-      <c r="AD5" s="56">
+      <c r="AD5" s="53">
         <v>1</v>
       </c>
-      <c r="AE5" s="56">
+      <c r="AE5" s="53">
         <v>2</v>
       </c>
-      <c r="AF5" s="56">
+      <c r="AF5" s="53">
         <v>3</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AG5" s="53">
         <v>4</v>
       </c>
       <c r="AH5" s="28">
@@ -1308,62 +1297,62 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="38"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1491,62 +1480,62 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35"/>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35"/>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="38"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1794,68 +1783,68 @@
     </row>
     <row r="14" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="38"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -1928,8 +1917,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1977,7 +1966,7 @@
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -2038,7 +2027,7 @@
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -2099,7 +2088,7 @@
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2160,7 +2149,7 @@
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2221,64 +2210,64 @@
     </row>
     <row r="21" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="38"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2311,8 +2300,8 @@
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="4"/>
@@ -2374,9 +2363,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -2404,7 +2393,7 @@
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2465,7 +2454,7 @@
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2528,66 +2517,66 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="35"/>
-      <c r="AX26" s="35"/>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="35"/>
-      <c r="BA26" s="35"/>
-      <c r="BB26" s="35"/>
-      <c r="BC26" s="35"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="38"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2777,38 +2766,38 @@
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAADE92A-64FA-41FF-9C27-01E86C67042C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E81BB56-CE72-4D3B-97D5-A3388061F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Trabalho que não sei fazer</t>
   </si>
   <si>
-    <t>Trabalho que não sei fazer mas estou fazendo</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Site Web para Profissionais</t>
   </si>
   <si>
-    <t>Tela de informações do profissional</t>
-  </si>
-  <si>
     <t>Busca e Filtro</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Trabalhos Realizados</t>
+  </si>
+  <si>
+    <t>Perfil do profissional</t>
+  </si>
+  <si>
+    <t>Este item irá ficar para depois</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1D4FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -466,7 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,6 +488,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,8 +555,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,6 +571,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1D4FC"/>
+      <color rgb="FFC9B0FA"/>
       <color rgb="FFFCD8D8"/>
       <color rgb="FFFF5D5D"/>
       <color rgb="FFFBCDCD"/>
@@ -869,7 +890,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE29" sqref="BE29"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,251 +900,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
     </row>
     <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -1160,25 +1181,25 @@
       <c r="M5" s="17">
         <v>14</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="54">
         <v>15</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="54">
         <v>16</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="54">
         <v>17</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="54">
         <v>18</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="54">
         <v>19</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="54">
         <v>20</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="54">
         <v>21</v>
       </c>
       <c r="U5" s="8">
@@ -1193,103 +1214,103 @@
       <c r="X5" s="8">
         <v>25</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="56">
         <v>26</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="56">
         <v>27</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="56">
         <v>28</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="56">
         <v>29</v>
       </c>
       <c r="AC5" s="17">
         <v>30</v>
       </c>
-      <c r="AD5" s="53">
+      <c r="AD5" s="31">
         <v>1</v>
       </c>
-      <c r="AE5" s="53">
+      <c r="AE5" s="31">
         <v>2</v>
       </c>
-      <c r="AF5" s="53">
+      <c r="AF5" s="31">
         <v>3</v>
       </c>
-      <c r="AG5" s="53">
+      <c r="AG5" s="31">
         <v>4</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="27">
         <v>5</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AI5" s="27">
         <v>6</v>
       </c>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="27">
         <v>7</v>
       </c>
-      <c r="AK5" s="28">
+      <c r="AK5" s="27">
         <v>8</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AL5" s="27">
         <v>9</v>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="27">
         <v>10</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="27">
         <v>11</v>
       </c>
-      <c r="AO5" s="28">
+      <c r="AO5" s="27">
         <v>12</v>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="29">
         <v>13</v>
       </c>
-      <c r="AQ5" s="30">
+      <c r="AQ5" s="29">
         <v>14</v>
       </c>
-      <c r="AR5" s="30">
+      <c r="AR5" s="29">
         <v>15</v>
       </c>
-      <c r="AS5" s="30">
+      <c r="AS5" s="29">
         <v>16</v>
       </c>
-      <c r="AT5" s="30">
+      <c r="AT5" s="29">
         <v>17</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AU5" s="29">
         <v>18</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="29">
         <v>19</v>
       </c>
-      <c r="AW5" s="30">
+      <c r="AW5" s="29">
         <v>20</v>
       </c>
-      <c r="AX5" s="30">
+      <c r="AX5" s="29">
         <v>21</v>
       </c>
-      <c r="AY5" s="30">
+      <c r="AY5" s="29">
         <v>22</v>
       </c>
-      <c r="AZ5" s="30">
+      <c r="AZ5" s="29">
         <v>23</v>
       </c>
-      <c r="BA5" s="30">
+      <c r="BA5" s="29">
         <v>24</v>
       </c>
-      <c r="BB5" s="30">
+      <c r="BB5" s="29">
         <v>25</v>
       </c>
-      <c r="BC5" s="30">
+      <c r="BC5" s="29">
         <v>26</v>
       </c>
-      <c r="BD5" s="30">
+      <c r="BD5" s="29">
         <v>27</v>
       </c>
-      <c r="BE5" s="30">
+      <c r="BE5" s="29">
         <v>28</v>
       </c>
     </row>
@@ -1297,62 +1318,62 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="39"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1480,62 +1501,62 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="39"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1727,7 +1748,7 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1783,68 +1804,68 @@
     </row>
     <row r="14" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="37"/>
-      <c r="BE14" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="39"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -1854,9 +1875,9 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="27"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1966,7 +1987,7 @@
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1980,11 +2001,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -2027,7 +2048,7 @@
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -2046,8 +2067,8 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -2088,7 +2109,7 @@
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2149,7 +2170,7 @@
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2174,10 +2195,10 @@
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
@@ -2210,64 +2231,64 @@
     </row>
     <row r="21" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="39"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2393,7 +2414,7 @@
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2454,7 +2475,7 @@
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2470,7 +2491,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="25"/>
+      <c r="P25" s="24"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
@@ -2517,66 +2538,66 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="37"/>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="39"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2618,10 +2639,10 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
@@ -2766,38 +2787,38 @@
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>

--- a/PRISMA/ContratePro/docs/NovoCronograma.xlsx
+++ b/PRISMA/ContratePro/docs/NovoCronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\ContratePro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E81BB56-CE72-4D3B-97D5-A3388061F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BFF7DB-BE67-4636-9588-BCAA245F8E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558DBBBA-A0C6-47D7-A09E-F40606FF5500}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -453,9 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -488,71 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -561,6 +494,74 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +891,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,417 +901,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="52" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
     </row>
     <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17">
+      <c r="A5" s="34"/>
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>6</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>7</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>8</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>9</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>10</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="31">
         <v>11</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="31">
         <v>12</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>13</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>14</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="31">
         <v>15</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="31">
         <v>16</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="31">
         <v>17</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="31">
         <v>18</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="31">
         <v>19</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="31">
         <v>20</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="31">
         <v>21</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="16">
         <v>22</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="16">
         <v>23</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="16">
         <v>24</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="16">
         <v>25</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="33">
         <v>26</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="Z5" s="33">
         <v>27</v>
       </c>
-      <c r="AA5" s="56">
+      <c r="AA5" s="33">
         <v>28</v>
       </c>
-      <c r="AB5" s="56">
+      <c r="AB5" s="33">
         <v>29</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="31">
         <v>30</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="57">
         <v>1</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="29">
         <v>2</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="29">
         <v>3</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="29">
         <v>4</v>
       </c>
-      <c r="AH5" s="27">
+      <c r="AH5" s="26">
         <v>5</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="26">
         <v>6</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="26">
         <v>7</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="26">
         <v>8</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="AL5" s="26">
         <v>9</v>
       </c>
-      <c r="AM5" s="27">
+      <c r="AM5" s="26">
         <v>10</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AN5" s="26">
         <v>11</v>
       </c>
-      <c r="AO5" s="27">
+      <c r="AO5" s="26">
         <v>12</v>
       </c>
-      <c r="AP5" s="29">
+      <c r="AP5" s="28">
         <v>13</v>
       </c>
-      <c r="AQ5" s="29">
+      <c r="AQ5" s="28">
         <v>14</v>
       </c>
-      <c r="AR5" s="29">
+      <c r="AR5" s="28">
         <v>15</v>
       </c>
-      <c r="AS5" s="29">
+      <c r="AS5" s="28">
         <v>16</v>
       </c>
-      <c r="AT5" s="29">
+      <c r="AT5" s="28">
         <v>17</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AU5" s="28">
         <v>18</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="28">
         <v>19</v>
       </c>
-      <c r="AW5" s="29">
+      <c r="AW5" s="28">
         <v>20</v>
       </c>
-      <c r="AX5" s="29">
+      <c r="AX5" s="28">
         <v>21</v>
       </c>
-      <c r="AY5" s="29">
+      <c r="AY5" s="28">
         <v>22</v>
       </c>
-      <c r="AZ5" s="29">
+      <c r="AZ5" s="28">
         <v>23</v>
       </c>
-      <c r="BA5" s="29">
+      <c r="BA5" s="28">
         <v>24</v>
       </c>
-      <c r="BB5" s="29">
+      <c r="BB5" s="28">
         <v>25</v>
       </c>
-      <c r="BC5" s="29">
+      <c r="BC5" s="28">
         <v>26</v>
       </c>
-      <c r="BD5" s="29">
+      <c r="BD5" s="28">
         <v>27</v>
       </c>
-      <c r="BE5" s="29">
+      <c r="BE5" s="28">
         <v>28</v>
       </c>
     </row>
@@ -1318,98 +1319,98 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="41"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -1440,37 +1441,37 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -1501,98 +1502,98 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="40"/>
+      <c r="BC9" s="40"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="41"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1625,8 +1626,8 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1687,9 +1688,9 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1745,37 +1746,37 @@
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1806,98 +1807,98 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="41"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -1938,8 +1939,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2001,11 +2002,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -2067,8 +2068,8 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -2130,10 +2131,10 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -2172,37 +2173,37 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
@@ -2233,98 +2234,98 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="40"/>
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="41"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
@@ -2384,9 +2385,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -2448,10 +2449,10 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
@@ -2477,46 +2478,46 @@
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
@@ -2538,98 +2539,98 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="41"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -2639,10 +2640,10 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
@@ -2657,7 +2658,7 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4"/>
@@ -2704,12 +2705,12 @@
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
-      <c r="AW28" s="9"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="9"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
@@ -2771,59 +2772,59 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
-      <c r="AZ29" s="9"/>
-      <c r="BA29" s="9"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="J31" s="11"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
+      <c r="J31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
